--- a/biology/Biologie cellulaire et moléculaire/Système_endocrinien/Système_endocrinien.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Système_endocrinien/Système_endocrinien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_endocrinien</t>
+          <t>Système_endocrinien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le système endocrinien est composé par l'ensemble des organes qui ont la capacité de relâcher des hormones dans le sang. Les cellules endocriniennes peuvent se situer dans un organe spécialisé dans la sécrétion d'hormones ; une glande endocrine, ou bien au sein d'un organe en amas de cellules endocrines ou en cellules isolées (système endocrinien diffus)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le système endocrinien est composé par l'ensemble des organes qui ont la capacité de relâcher des hormones dans le sang. Les cellules endocriniennes peuvent se situer dans un organe spécialisé dans la sécrétion d'hormones ; une glande endocrine, ou bien au sein d'un organe en amas de cellules endocrines ou en cellules isolées (système endocrinien diffus).
 Le mot endocrine provient du grec ἔνδον / éndon, « à l'intérieur », et κρίνω / krínô, « sécréter ».
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_endocrinien</t>
+          <t>Système_endocrinien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le système endocrinien comprend les organes et les glandes qui élaborent des hormones. Ces dernières sont des substances chimiques de signalisation qui sont véhiculées et distribuées par la circulation sanguine dans le corps. Les hormones ont une fonction de contrôle des processus biologiques vitaux comme la croissance et le développement, le métabolisme et le cycle veille-sommeil[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le système endocrinien comprend les organes et les glandes qui élaborent des hormones. Ces dernières sont des substances chimiques de signalisation qui sont véhiculées et distribuées par la circulation sanguine dans le corps. Les hormones ont une fonction de contrôle des processus biologiques vitaux comme la croissance et le développement, le métabolisme et le cycle veille-sommeil.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_endocrinien</t>
+          <t>Système_endocrinien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Les hormones de l'hypophyse et de l'hypothalamus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On parle de complexe hypothalamo-hypophysaire.
 L'hypothalamus, qui contient des neurones sécréteurs, synthétise l'ocytocine et l'hormone anti-diurétique (ADH). Ces neurohormones sont transportées le long des axones jusqu'à la neurohypophyse où elles sont emmagasinées. Elles seront déversées dans les capillaires sanguins le moment venu.
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_endocrinien</t>
+          <t>Système_endocrinien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,12 +604,14 @@
           <t>Les risques liés aux perturbateurs du système endocrinien</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les substances endocriniennes sont des substances pouvant agir de 3 manières différentes :
 Elles modifient les mécanismes de production des hormones naturelles dans l’organisme ;
 Elles se substituent aux hormones en mimant leur action dans les mécanismes biologiques ;
-Elles empêchent l'action des hormones[3].
+Elles empêchent l'action des hormones.
 </t>
         </is>
       </c>
